--- a/state_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
+++ b/state_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U309"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.02041</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0218262254500867</v>
+        <v>0.021827569240856</v>
       </c>
       <c r="H4" t="n">
         <v>0.07081604426003089</v>
@@ -813,7 +813,7 @@
         <v>0.02041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0218262254500867</v>
+        <v>0.021827569240856</v>
       </c>
       <c r="H5" t="n">
         <v>0.07081604426003089</v>
@@ -1049,24 +1049,24 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.28</v>
+        <v>0.2805</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3585</v>
+        <v>0.358554347826087</v>
       </c>
       <c r="H8" t="n">
         <v>1.046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8364</v>
+        <v>0.8368</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.111</v>
+        <v>0.1105</v>
       </c>
       <c r="M8" t="n">
-        <v>0.64904</v>
+        <v>0.64938</v>
       </c>
       <c r="N8" t="n">
         <v>0.72678</v>
@@ -1126,24 +1126,24 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.28</v>
+        <v>0.2805</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3585</v>
+        <v>0.358554347826087</v>
       </c>
       <c r="H9" t="n">
         <v>1.046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8364</v>
+        <v>0.8368</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.111</v>
+        <v>0.1105</v>
       </c>
       <c r="M9" t="n">
-        <v>0.64904</v>
+        <v>0.64938</v>
       </c>
       <c r="N9" t="n">
         <v>0.72678</v>
@@ -1206,7 +1206,7 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.143788519849372</v>
+        <v>0.143790000604789</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.143788519849372</v>
+        <v>0.143790000604789</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>0.01657</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0196797084198738</v>
+        <v>0.0196814254858568</v>
       </c>
       <c r="H14" t="n">
         <v>0.07081604426003089</v>
@@ -1607,7 +1607,7 @@
         <v>0.01657</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0196797084198738</v>
+        <v>0.0196814254858568</v>
       </c>
       <c r="H15" t="n">
         <v>0.07081604426003089</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2885</v>
+        <v>0.28825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.365111111111111</v>
+        <v>0.365138888888889</v>
       </c>
       <c r="H18" t="n">
         <v>1.022</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7726</v>
+        <v>0.77295</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
         <v>0.1305</v>
       </c>
       <c r="M18" t="n">
-        <v>0.63884</v>
+        <v>0.63903</v>
       </c>
       <c r="N18" t="n">
         <v>0.72098</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.2885</v>
+        <v>0.28825</v>
       </c>
       <c r="G19" t="n">
-        <v>0.365111111111111</v>
+        <v>0.365138888888889</v>
       </c>
       <c r="H19" t="n">
         <v>1.022</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7726</v>
+        <v>0.77295</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1937,7 +1937,7 @@
         <v>0.1305</v>
       </c>
       <c r="M19" t="n">
-        <v>0.63884</v>
+        <v>0.63903</v>
       </c>
       <c r="N19" t="n">
         <v>0.72098</v>
@@ -2000,7 +2000,7 @@
         <v>0.03</v>
       </c>
       <c r="G20" t="n">
-        <v>0.143451997585308</v>
+        <v>0.143453889661675</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>0.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.143451997585308</v>
+        <v>0.143453889661675</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2401,7 +2401,7 @@
         <v>0.03014</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0326496862631893</v>
+        <v>0.0326505219847697</v>
       </c>
       <c r="H25" t="n">
         <v>0.08784258608564301</v>
@@ -2482,7 +2482,7 @@
         <v>0.03014</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0326496862631893</v>
+        <v>0.0326505219847697</v>
       </c>
       <c r="H26" t="n">
         <v>0.08784258608564301</v>
@@ -2563,7 +2563,7 @@
         <v>0.31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.425047583357457</v>
+        <v>0.425083487413871</v>
       </c>
       <c r="H27" t="n">
         <v>1.4</v>
@@ -2644,7 +2644,7 @@
         <v>0.31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.425047583357457</v>
+        <v>0.425083487413871</v>
       </c>
       <c r="H28" t="n">
         <v>1.4</v>
@@ -2721,7 +2721,7 @@
         <v>0.36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.479294117647059</v>
+        <v>0.479279411764706</v>
       </c>
       <c r="H29" t="n">
         <v>1.43</v>
@@ -2798,7 +2798,7 @@
         <v>0.36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.479294117647059</v>
+        <v>0.479279411764706</v>
       </c>
       <c r="H30" t="n">
         <v>1.43</v>
@@ -3122,7 +3122,7 @@
         <v>0.02674</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0340163563822616</v>
+        <v>0.0340170021671192</v>
       </c>
       <c r="H34" t="n">
         <v>0.207292625406743</v>
@@ -3203,7 +3203,7 @@
         <v>0.02674</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0340163563822616</v>
+        <v>0.0340170021671192</v>
       </c>
       <c r="H35" t="n">
         <v>0.207292625406743</v>
@@ -3284,7 +3284,7 @@
         <v>0.31</v>
       </c>
       <c r="G36" t="n">
-        <v>0.442536768958035</v>
+        <v>0.442564513001628</v>
       </c>
       <c r="H36" t="n">
         <v>1.4</v>
@@ -3365,7 +3365,7 @@
         <v>0.31</v>
       </c>
       <c r="G37" t="n">
-        <v>0.442536768958035</v>
+        <v>0.442564513001628</v>
       </c>
       <c r="H37" t="n">
         <v>1.4</v>
@@ -3442,7 +3442,7 @@
         <v>0.385</v>
       </c>
       <c r="G38" t="n">
-        <v>0.499636363636364</v>
+        <v>0.499625</v>
       </c>
       <c r="H38" t="n">
         <v>1.43</v>
@@ -3519,7 +3519,7 @@
         <v>0.385</v>
       </c>
       <c r="G39" t="n">
-        <v>0.499636363636364</v>
+        <v>0.499625</v>
       </c>
       <c r="H39" t="n">
         <v>1.43</v>
@@ -3843,7 +3843,7 @@
         <v>0.0221</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0290594839372601</v>
+        <v>0.0290600410849804</v>
       </c>
       <c r="H43" t="n">
         <v>0.207292625406743</v>
@@ -3924,7 +3924,7 @@
         <v>0.0221</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0290594839372601</v>
+        <v>0.0290600410849804</v>
       </c>
       <c r="H44" t="n">
         <v>0.207292625406743</v>
@@ -4005,7 +4005,7 @@
         <v>0.3</v>
       </c>
       <c r="G45" t="n">
-        <v>0.433953290865755</v>
+        <v>0.433977226903365</v>
       </c>
       <c r="H45" t="n">
         <v>1.4</v>
@@ -4086,7 +4086,7 @@
         <v>0.3</v>
       </c>
       <c r="G46" t="n">
-        <v>0.433953290865755</v>
+        <v>0.433977226903365</v>
       </c>
       <c r="H46" t="n">
         <v>1.4</v>
@@ -4163,7 +4163,7 @@
         <v>0.35</v>
       </c>
       <c r="G47" t="n">
-        <v>0.483039215686275</v>
+        <v>0.483029411764706</v>
       </c>
       <c r="H47" t="n">
         <v>1.43</v>
@@ -4240,7 +4240,7 @@
         <v>0.35</v>
       </c>
       <c r="G48" t="n">
-        <v>0.483039215686275</v>
+        <v>0.483029411764706</v>
       </c>
       <c r="H48" t="n">
         <v>1.43</v>
@@ -4904,7 +4904,7 @@
         <v>0.02075</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0292418373069102</v>
+        <v>0.0292424550141653</v>
       </c>
       <c r="H56" t="n">
         <v>0.207292625406743</v>
@@ -4985,7 +4985,7 @@
         <v>0.02075</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0292418373069102</v>
+        <v>0.0292424550141653</v>
       </c>
       <c r="H57" t="n">
         <v>0.207292625406743</v>
@@ -5066,7 +5066,7 @@
         <v>0.295</v>
       </c>
       <c r="G58" t="n">
-        <v>0.434165605090294</v>
+        <v>0.434192142871122</v>
       </c>
       <c r="H58" t="n">
         <v>1.4</v>
@@ -5147,7 +5147,7 @@
         <v>0.295</v>
       </c>
       <c r="G59" t="n">
-        <v>0.434165605090294</v>
+        <v>0.434192142871122</v>
       </c>
       <c r="H59" t="n">
         <v>1.4</v>
@@ -5224,7 +5224,7 @@
         <v>0.35</v>
       </c>
       <c r="G60" t="n">
-        <v>0.483369565217391</v>
+        <v>0.483358695652174</v>
       </c>
       <c r="H60" t="n">
         <v>1.43</v>
@@ -5301,7 +5301,7 @@
         <v>0.35</v>
       </c>
       <c r="G61" t="n">
-        <v>0.483369565217391</v>
+        <v>0.483358695652174</v>
       </c>
       <c r="H61" t="n">
         <v>1.43</v>
@@ -5965,7 +5965,7 @@
         <v>0.01708</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0262892035389448</v>
+        <v>0.0262900392605252</v>
       </c>
       <c r="H69" t="n">
         <v>0.207292625406743</v>
@@ -6046,7 +6046,7 @@
         <v>0.01708</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0262892035389448</v>
+        <v>0.0262900392605252</v>
       </c>
       <c r="H70" t="n">
         <v>0.207292625406743</v>
@@ -6127,7 +6127,7 @@
         <v>0.265</v>
       </c>
       <c r="G71" t="n">
-        <v>0.397694642180986</v>
+        <v>0.3977305462374</v>
       </c>
       <c r="H71" t="n">
         <v>1.1</v>
@@ -6208,7 +6208,7 @@
         <v>0.265</v>
       </c>
       <c r="G72" t="n">
-        <v>0.397694642180986</v>
+        <v>0.3977305462374</v>
       </c>
       <c r="H72" t="n">
         <v>1.1</v>
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.3125</v>
+        <v>0.31225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.441617647058824</v>
+        <v>0.441602941176471</v>
       </c>
       <c r="H73" t="n">
         <v>1.145</v>
@@ -6359,10 +6359,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.3125</v>
+        <v>0.31225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.441617647058824</v>
+        <v>0.441602941176471</v>
       </c>
       <c r="H74" t="n">
         <v>1.145</v>
@@ -6443,7 +6443,7 @@
         <v>0.95</v>
       </c>
       <c r="G75" t="n">
-        <v>1.09688756084201</v>
+        <v>1.09664914362982</v>
       </c>
       <c r="H75" t="n">
         <v>2.8</v>
@@ -7026,7 +7026,7 @@
         <v>0.00975</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0188595592024452</v>
+        <v>0.0188671076351665</v>
       </c>
       <c r="H82" t="n">
         <v>0.207292625406743</v>
@@ -7107,7 +7107,7 @@
         <v>0.00975</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0188595592024452</v>
+        <v>0.0188671076351665</v>
       </c>
       <c r="H83" t="n">
         <v>0.207292625406743</v>
@@ -7184,7 +7184,7 @@
         <v>0.271</v>
       </c>
       <c r="G84" t="n">
-        <v>0.37187671593407</v>
+        <v>0.371895136695092</v>
       </c>
       <c r="H84" t="n">
         <v>1.145</v>
@@ -7261,7 +7261,7 @@
         <v>0.271</v>
       </c>
       <c r="G85" t="n">
-        <v>0.37187671593407</v>
+        <v>0.371895136695092</v>
       </c>
       <c r="H85" t="n">
         <v>1.145</v>
@@ -7342,7 +7342,7 @@
         <v>1.18</v>
       </c>
       <c r="G86" t="n">
-        <v>1.23616710260916</v>
+        <v>1.23594313492499</v>
       </c>
       <c r="H86" t="n">
         <v>4.3</v>
@@ -7925,7 +7925,7 @@
         <v>0.00725</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0116831385778384</v>
+        <v>0.0116895959078866</v>
       </c>
       <c r="H93" t="n">
         <v>0.0516693825490277</v>
@@ -8006,7 +8006,7 @@
         <v>0.00725</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0116831385778384</v>
+        <v>0.0116895959078866</v>
       </c>
       <c r="H94" t="n">
         <v>0.0516693825490277</v>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.193</v>
+        <v>0.1931</v>
       </c>
       <c r="G95" t="n">
-        <v>0.314683760737837</v>
+        <v>0.314672557455372</v>
       </c>
       <c r="H95" t="n">
         <v>1.145</v>
@@ -8157,10 +8157,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.193</v>
+        <v>0.1931</v>
       </c>
       <c r="G96" t="n">
-        <v>0.314683760737837</v>
+        <v>0.314672557455372</v>
       </c>
       <c r="H96" t="n">
         <v>1.145</v>
@@ -8241,7 +8241,7 @@
         <v>1.4</v>
       </c>
       <c r="G97" t="n">
-        <v>1.67411714620341</v>
+        <v>1.67387078175082</v>
       </c>
       <c r="H97" t="n">
         <v>5</v>
@@ -8824,7 +8824,7 @@
         <v>0.00695</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0121936787081955</v>
+        <v>0.0121985437383256</v>
       </c>
       <c r="H104" t="n">
         <v>0.0516693825490277</v>
@@ -8905,7 +8905,7 @@
         <v>0.00695</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0121936787081955</v>
+        <v>0.0121985437383256</v>
       </c>
       <c r="H105" t="n">
         <v>0.0516693825490277</v>
@@ -8979,10 +8979,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.193</v>
+        <v>0.1931</v>
       </c>
       <c r="G106" t="n">
-        <v>0.305391867449221</v>
+        <v>0.30537998517994</v>
       </c>
       <c r="H106" t="n">
         <v>1.011</v>
@@ -8996,7 +8996,7 @@
         <v>0.0765</v>
       </c>
       <c r="M106" t="n">
-        <v>0.55971</v>
+        <v>0.56015</v>
       </c>
       <c r="N106" t="n">
         <v>0.6575800000000001</v>
@@ -9056,10 +9056,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.193</v>
+        <v>0.1931</v>
       </c>
       <c r="G107" t="n">
-        <v>0.305391867449221</v>
+        <v>0.30537998517994</v>
       </c>
       <c r="H107" t="n">
         <v>1.011</v>
@@ -9073,7 +9073,7 @@
         <v>0.0765</v>
       </c>
       <c r="M107" t="n">
-        <v>0.55971</v>
+        <v>0.56015</v>
       </c>
       <c r="N107" t="n">
         <v>0.6575800000000001</v>
@@ -9294,13 +9294,13 @@
         <v>1.4</v>
       </c>
       <c r="G110" t="n">
-        <v>1.74345148436701</v>
+        <v>1.68751085015792</v>
       </c>
       <c r="H110" t="n">
-        <v>6.68109350421132</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>4.685</v>
+        <v>4.41374</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9375,7 +9375,7 @@
         <v>0.011</v>
       </c>
       <c r="G111" t="n">
-        <v>0.011894382268898</v>
+        <v>0.0118982197930202</v>
       </c>
       <c r="H111" t="n">
         <v>0.029</v>
@@ -9456,7 +9456,7 @@
         <v>0.011</v>
       </c>
       <c r="G112" t="n">
-        <v>0.011894382268898</v>
+        <v>0.0118982197930202</v>
       </c>
       <c r="H112" t="n">
         <v>0.029</v>
@@ -9877,7 +9877,7 @@
         <v>0.00976</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0163578484877041</v>
+        <v>0.0163614161764661</v>
       </c>
       <c r="H117" t="n">
         <v>0.0908638622487878</v>
@@ -9958,7 +9958,7 @@
         <v>0.00976</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0163578484877041</v>
+        <v>0.0163614161764661</v>
       </c>
       <c r="H118" t="n">
         <v>0.0908638622487878</v>
@@ -10035,7 +10035,7 @@
         <v>0.202</v>
       </c>
       <c r="G119" t="n">
-        <v>0.329287369462762</v>
+        <v>0.329278655798623</v>
       </c>
       <c r="H119" t="n">
         <v>1.109</v>
@@ -10112,7 +10112,7 @@
         <v>0.202</v>
       </c>
       <c r="G120" t="n">
-        <v>0.329287369462762</v>
+        <v>0.329278655798623</v>
       </c>
       <c r="H120" t="n">
         <v>1.109</v>
@@ -10189,7 +10189,7 @@
         <v>0.021</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0673438752661735</v>
+        <v>0.06734435346554769</v>
       </c>
       <c r="H121" t="n">
         <v>1.2</v>
@@ -10266,7 +10266,7 @@
         <v>0.021</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0673438752661735</v>
+        <v>0.06734435346554769</v>
       </c>
       <c r="H122" t="n">
         <v>1.2</v>
@@ -10347,13 +10347,13 @@
         <v>1.5</v>
       </c>
       <c r="G123" t="n">
-        <v>1.72437975286354</v>
+        <v>1.67985557461549</v>
       </c>
       <c r="H123" t="n">
-        <v>6.68109350421132</v>
+        <v>5</v>
       </c>
       <c r="I123" t="n">
-        <v>4.335</v>
+        <v>4.31034</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -10428,7 +10428,7 @@
         <v>0.01</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0113391422625986</v>
+        <v>0.0113454504973339</v>
       </c>
       <c r="H124" t="n">
         <v>0.031</v>
@@ -10509,7 +10509,7 @@
         <v>0.01</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0113391422625986</v>
+        <v>0.0113454504973339</v>
       </c>
       <c r="H125" t="n">
         <v>0.031</v>
@@ -10930,7 +10930,7 @@
         <v>0.01236</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0177317874328573</v>
+        <v>0.0177346040292484</v>
       </c>
       <c r="H130" t="n">
         <v>0.0925666864256118</v>
@@ -11011,7 +11011,7 @@
         <v>0.01236</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0177317874328573</v>
+        <v>0.0177346040292484</v>
       </c>
       <c r="H131" t="n">
         <v>0.0925666864256118</v>
@@ -11092,7 +11092,7 @@
         <v>0.236</v>
       </c>
       <c r="G132" t="n">
-        <v>0.314186868955062</v>
+        <v>0.31420018053078</v>
       </c>
       <c r="H132" t="n">
         <v>1.07</v>
@@ -11173,7 +11173,7 @@
         <v>0.236</v>
       </c>
       <c r="G133" t="n">
-        <v>0.314186868955062</v>
+        <v>0.31420018053078</v>
       </c>
       <c r="H133" t="n">
         <v>1.07</v>
@@ -11250,7 +11250,7 @@
         <v>0.233</v>
       </c>
       <c r="G134" t="n">
-        <v>0.32556020396183</v>
+        <v>0.325553324753299</v>
       </c>
       <c r="H134" t="n">
         <v>1.109</v>
@@ -11264,7 +11264,7 @@
         <v>0.1355</v>
       </c>
       <c r="M134" t="n">
-        <v>0.59235</v>
+        <v>0.59244</v>
       </c>
       <c r="N134" t="n">
         <v>0.84566</v>
@@ -11327,7 +11327,7 @@
         <v>0.233</v>
       </c>
       <c r="G135" t="n">
-        <v>0.32556020396183</v>
+        <v>0.325553324753299</v>
       </c>
       <c r="H135" t="n">
         <v>1.109</v>
@@ -11341,7 +11341,7 @@
         <v>0.1355</v>
       </c>
       <c r="M135" t="n">
-        <v>0.59235</v>
+        <v>0.59244</v>
       </c>
       <c r="N135" t="n">
         <v>0.84566</v>
@@ -11558,7 +11558,7 @@
         <v>0.021</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0697100769645229</v>
+        <v>0.0697104544903447</v>
       </c>
       <c r="H138" t="n">
         <v>1.2</v>
@@ -11635,7 +11635,7 @@
         <v>0.021</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0697100769645229</v>
+        <v>0.0697104544903447</v>
       </c>
       <c r="H139" t="n">
         <v>1.2</v>
@@ -11716,10 +11716,10 @@
         <v>1.5</v>
       </c>
       <c r="G140" t="n">
-        <v>1.76335477459238</v>
+        <v>1.72072156281636</v>
       </c>
       <c r="H140" t="n">
-        <v>6.68109350421132</v>
+        <v>5</v>
       </c>
       <c r="I140" t="n">
         <v>4.285</v>
@@ -11797,7 +11797,7 @@
         <v>0.01</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0112815708442779</v>
+        <v>0.0112877703163454</v>
       </c>
       <c r="H141" t="n">
         <v>0.031</v>
@@ -11878,7 +11878,7 @@
         <v>0.01</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0112815708442779</v>
+        <v>0.0112877703163454</v>
       </c>
       <c r="H142" t="n">
         <v>0.031</v>
@@ -12299,7 +12299,7 @@
         <v>0.01236</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0176835212681829</v>
+        <v>0.0176819677193142</v>
       </c>
       <c r="H147" t="n">
         <v>0.0925666864256118</v>
@@ -12380,7 +12380,7 @@
         <v>0.01236</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0176835212681829</v>
+        <v>0.0176819677193142</v>
       </c>
       <c r="H148" t="n">
         <v>0.0925666864256118</v>
@@ -12461,7 +12461,7 @@
         <v>0.1865</v>
       </c>
       <c r="G149" t="n">
-        <v>0.263060164359321</v>
+        <v>0.263070980014592</v>
       </c>
       <c r="H149" t="n">
         <v>1.07</v>
@@ -12542,7 +12542,7 @@
         <v>0.1865</v>
       </c>
       <c r="G150" t="n">
-        <v>0.263060164359321</v>
+        <v>0.263070980014592</v>
       </c>
       <c r="H150" t="n">
         <v>1.07</v>
@@ -12619,7 +12619,7 @@
         <v>0.228</v>
       </c>
       <c r="G151" t="n">
-        <v>0.314827586206897</v>
+        <v>0.314801724137931</v>
       </c>
       <c r="H151" t="n">
         <v>1.109</v>
@@ -12633,7 +12633,7 @@
         <v>0.1355</v>
       </c>
       <c r="M151" t="n">
-        <v>0.56784</v>
+        <v>0.56802</v>
       </c>
       <c r="N151" t="n">
         <v>0.83854</v>
@@ -12696,7 +12696,7 @@
         <v>0.228</v>
       </c>
       <c r="G152" t="n">
-        <v>0.314827586206897</v>
+        <v>0.314801724137931</v>
       </c>
       <c r="H152" t="n">
         <v>1.109</v>
@@ -12710,7 +12710,7 @@
         <v>0.1355</v>
       </c>
       <c r="M152" t="n">
-        <v>0.56784</v>
+        <v>0.56802</v>
       </c>
       <c r="N152" t="n">
         <v>0.83854</v>
@@ -12927,7 +12927,7 @@
         <v>0.019</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0653185239134105</v>
+        <v>0.06531889493016629</v>
       </c>
       <c r="H155" t="n">
         <v>1.2</v>
@@ -13004,7 +13004,7 @@
         <v>0.019</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0653185239134105</v>
+        <v>0.06531889493016629</v>
       </c>
       <c r="H156" t="n">
         <v>1.2</v>
@@ -13085,13 +13085,13 @@
         <v>1.6</v>
       </c>
       <c r="G157" t="n">
-        <v>1.83393329614877</v>
+        <v>1.7967994761357</v>
       </c>
       <c r="H157" t="n">
-        <v>7.05910998825558</v>
+        <v>7.41728931319691</v>
       </c>
       <c r="I157" t="n">
-        <v>5.08405</v>
+        <v>4.53146</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -13166,7 +13166,7 @@
         <v>0.01</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0109539846373814</v>
+        <v>0.0109601841094489</v>
       </c>
       <c r="H158" t="n">
         <v>0.031</v>
@@ -13247,7 +13247,7 @@
         <v>0.01</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0109539846373814</v>
+        <v>0.0109601841094489</v>
       </c>
       <c r="H159" t="n">
         <v>0.031</v>
@@ -13668,7 +13668,7 @@
         <v>0.0102</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0158984322090775</v>
+        <v>0.0158972837782461</v>
       </c>
       <c r="H164" t="n">
         <v>0.0925666864256118</v>
@@ -13749,7 +13749,7 @@
         <v>0.0102</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0158984322090775</v>
+        <v>0.0158972837782461</v>
       </c>
       <c r="H165" t="n">
         <v>0.0925666864256118</v>
@@ -13830,7 +13830,7 @@
         <v>0.17425</v>
       </c>
       <c r="G166" t="n">
-        <v>0.260317032573231</v>
+        <v>0.260325983460352</v>
       </c>
       <c r="H166" t="n">
         <v>1.1393</v>
@@ -13911,7 +13911,7 @@
         <v>0.17425</v>
       </c>
       <c r="G167" t="n">
-        <v>0.260317032573231</v>
+        <v>0.260325983460352</v>
       </c>
       <c r="H167" t="n">
         <v>1.1393</v>
@@ -13985,13 +13985,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1965</v>
+        <v>0.19625</v>
       </c>
       <c r="G168" t="n">
-        <v>0.289741379310345</v>
+        <v>0.289722413793103</v>
       </c>
       <c r="H168" t="n">
-        <v>1.162</v>
+        <v>1.1618</v>
       </c>
       <c r="I168" t="n">
         <v>0.8948</v>
@@ -13999,7 +13999,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.0675</v>
+        <v>0.06725</v>
       </c>
       <c r="M168" t="n">
         <v>0.55364</v>
@@ -14062,13 +14062,13 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.1965</v>
+        <v>0.19625</v>
       </c>
       <c r="G169" t="n">
-        <v>0.289741379310345</v>
+        <v>0.289722413793103</v>
       </c>
       <c r="H169" t="n">
-        <v>1.162</v>
+        <v>1.1618</v>
       </c>
       <c r="I169" t="n">
         <v>0.8948</v>
@@ -14076,7 +14076,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.0675</v>
+        <v>0.06725</v>
       </c>
       <c r="M169" t="n">
         <v>0.55364</v>
@@ -14296,7 +14296,7 @@
         <v>0.019</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0762323170168587</v>
+        <v>0.0762326880336146</v>
       </c>
       <c r="H172" t="n">
         <v>1.2</v>
@@ -14373,7 +14373,7 @@
         <v>0.019</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0762323170168587</v>
+        <v>0.0762326880336146</v>
       </c>
       <c r="H173" t="n">
         <v>1.2</v>
@@ -14454,13 +14454,13 @@
         <v>1.6</v>
       </c>
       <c r="G174" t="n">
-        <v>1.9194186923382</v>
+        <v>1.88218903279459</v>
       </c>
       <c r="H174" t="n">
-        <v>7.05910998825558</v>
+        <v>7.41728931319691</v>
       </c>
       <c r="I174" t="n">
-        <v>5.84405</v>
+        <v>5.515</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -14471,7 +14471,7 @@
         <v>2.9585</v>
       </c>
       <c r="N174" t="n">
-        <v>5.0716</v>
+        <v>4.49554</v>
       </c>
       <c r="O174" t="n">
         <v>1819686</v>
@@ -14535,7 +14535,7 @@
         <v>0.0095</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0106888518161353</v>
+        <v>0.0106948446391339</v>
       </c>
       <c r="H175" t="n">
         <v>0.031</v>
@@ -14616,7 +14616,7 @@
         <v>0.0095</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0106888518161353</v>
+        <v>0.0106948446391339</v>
       </c>
       <c r="H176" t="n">
         <v>0.031</v>
@@ -15037,7 +15037,7 @@
         <v>0.00545</v>
       </c>
       <c r="G181" t="n">
-        <v>0.012361166464736</v>
+        <v>0.0123644255428752</v>
       </c>
       <c r="H181" t="n">
         <v>0.0925666864256118</v>
@@ -15118,7 +15118,7 @@
         <v>0.00545</v>
       </c>
       <c r="G182" t="n">
-        <v>0.012361166464736</v>
+        <v>0.0123644255428752</v>
       </c>
       <c r="H182" t="n">
         <v>0.0925666864256118</v>
@@ -15199,7 +15199,7 @@
         <v>0.15405</v>
       </c>
       <c r="G183" t="n">
-        <v>0.254370921802776</v>
+        <v>0.254385377676641</v>
       </c>
       <c r="H183" t="n">
         <v>1.1393</v>
@@ -15280,7 +15280,7 @@
         <v>0.15405</v>
       </c>
       <c r="G184" t="n">
-        <v>0.254370921802776</v>
+        <v>0.254385377676641</v>
       </c>
       <c r="H184" t="n">
         <v>1.1393</v>
@@ -15354,13 +15354,13 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.178</v>
+        <v>0.1781</v>
       </c>
       <c r="G185" t="n">
-        <v>0.278234839041705</v>
+        <v>0.278229596398767</v>
       </c>
       <c r="H185" t="n">
-        <v>1.162</v>
+        <v>1.1618</v>
       </c>
       <c r="I185" t="n">
         <v>0.8875</v>
@@ -15368,7 +15368,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.0505</v>
+        <v>0.05075</v>
       </c>
       <c r="M185" t="n">
         <v>0.5448</v>
@@ -15431,13 +15431,13 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.178</v>
+        <v>0.1781</v>
       </c>
       <c r="G186" t="n">
-        <v>0.278234839041705</v>
+        <v>0.278229596398767</v>
       </c>
       <c r="H186" t="n">
-        <v>1.162</v>
+        <v>1.1618</v>
       </c>
       <c r="I186" t="n">
         <v>0.8875</v>
@@ -15445,7 +15445,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.0505</v>
+        <v>0.05075</v>
       </c>
       <c r="M186" t="n">
         <v>0.5448</v>
@@ -15665,7 +15665,7 @@
         <v>0.016</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07369123978296339</v>
+        <v>0.07369159843249409</v>
       </c>
       <c r="H189" t="n">
         <v>0.681</v>
@@ -15742,7 +15742,7 @@
         <v>0.016</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07369123978296339</v>
+        <v>0.07369159843249409</v>
       </c>
       <c r="H190" t="n">
         <v>0.681</v>
@@ -15823,10 +15823,10 @@
         <v>1.75</v>
       </c>
       <c r="G191" t="n">
-        <v>1.93270043116078</v>
+        <v>1.93943197890963</v>
       </c>
       <c r="H191" t="n">
-        <v>7.05910998825558</v>
+        <v>7.41728931319691</v>
       </c>
       <c r="I191" t="n">
         <v>5.536</v>
@@ -15904,7 +15904,7 @@
         <v>0.01</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0107595451523214</v>
+        <v>0.0107637174610528</v>
       </c>
       <c r="H192" t="n">
         <v>0.031</v>
@@ -15985,7 +15985,7 @@
         <v>0.01</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0107595451523214</v>
+        <v>0.0107637174610528</v>
       </c>
       <c r="H193" t="n">
         <v>0.031</v>
@@ -16403,10 +16403,10 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0070812408415877</v>
+        <v>0.0070934160101039</v>
       </c>
       <c r="H198" t="n">
         <v>0.0925666864256118</v>
@@ -16417,7 +16417,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>0.00184</v>
+        <v>0.00187</v>
       </c>
       <c r="M198" t="n">
         <v>0.01267</v>
@@ -16484,10 +16484,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0070812408415877</v>
+        <v>0.0070934160101039</v>
       </c>
       <c r="H199" t="n">
         <v>0.0925666864256118</v>
@@ -16498,7 +16498,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>0.00184</v>
+        <v>0.00187</v>
       </c>
       <c r="M199" t="n">
         <v>0.01267</v>
@@ -16568,7 +16568,7 @@
         <v>0.15405</v>
       </c>
       <c r="G200" t="n">
-        <v>0.258193576276972</v>
+        <v>0.258229387408065</v>
       </c>
       <c r="H200" t="n">
         <v>1.29</v>
@@ -16579,7 +16579,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.00507</v>
+        <v>0.00544</v>
       </c>
       <c r="M200" t="n">
         <v>0.52055</v>
@@ -16649,7 +16649,7 @@
         <v>0.15405</v>
       </c>
       <c r="G201" t="n">
-        <v>0.258193576276972</v>
+        <v>0.258229387408065</v>
       </c>
       <c r="H201" t="n">
         <v>1.29</v>
@@ -16660,7 +16660,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.00507</v>
+        <v>0.00544</v>
       </c>
       <c r="M201" t="n">
         <v>0.52055</v>
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.1625</v>
+        <v>0.16215</v>
       </c>
       <c r="G202" t="n">
-        <v>0.275482127579445</v>
+        <v>0.275485222335974</v>
       </c>
       <c r="H202" t="n">
         <v>1.295</v>
@@ -16737,7 +16737,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.01733</v>
+        <v>0.01782</v>
       </c>
       <c r="M202" t="n">
         <v>0.5448</v>
@@ -16800,10 +16800,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.1625</v>
+        <v>0.16215</v>
       </c>
       <c r="G203" t="n">
-        <v>0.275482127579445</v>
+        <v>0.275485222335974</v>
       </c>
       <c r="H203" t="n">
         <v>1.295</v>
@@ -16814,7 +16814,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.01733</v>
+        <v>0.01782</v>
       </c>
       <c r="M203" t="n">
         <v>0.5448</v>
@@ -17192,10 +17192,10 @@
         <v>1.25</v>
       </c>
       <c r="G208" t="n">
-        <v>1.79778560037705</v>
+        <v>1.80426783154261</v>
       </c>
       <c r="H208" t="n">
-        <v>7.05910998825558</v>
+        <v>7.41728931319691</v>
       </c>
       <c r="I208" t="n">
         <v>5.532</v>
@@ -17273,7 +17273,7 @@
         <v>0.011</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0113081467045262</v>
+        <v>0.0113092043333507</v>
       </c>
       <c r="H209" t="n">
         <v>0.031</v>
@@ -17354,7 +17354,7 @@
         <v>0.011</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0113081467045262</v>
+        <v>0.0113092043333507</v>
       </c>
       <c r="H210" t="n">
         <v>0.031</v>
@@ -17772,10 +17772,10 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0034150430220617</v>
+        <v>0.0034473270600195</v>
       </c>
       <c r="H215" t="n">
         <v>0.0246802764716001</v>
@@ -17786,7 +17786,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
-        <v>0.00184</v>
+        <v>0.00187</v>
       </c>
       <c r="M215" t="n">
         <v>0.00433</v>
@@ -17853,10 +17853,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00188</v>
+        <v>0.00192</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0034150430220617</v>
+        <v>0.0034473270600195</v>
       </c>
       <c r="H216" t="n">
         <v>0.0246802764716001</v>
@@ -17867,7 +17867,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00184</v>
+        <v>0.00187</v>
       </c>
       <c r="M216" t="n">
         <v>0.00433</v>
@@ -17937,7 +17937,7 @@
         <v>0.1379</v>
       </c>
       <c r="G217" t="n">
-        <v>0.262947169796471</v>
+        <v>0.262991124366608</v>
       </c>
       <c r="H217" t="n">
         <v>1.29</v>
@@ -17948,7 +17948,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.00507</v>
+        <v>0.00544</v>
       </c>
       <c r="M217" t="n">
         <v>0.533</v>
@@ -18018,7 +18018,7 @@
         <v>0.1379</v>
       </c>
       <c r="G218" t="n">
-        <v>0.262947169796471</v>
+        <v>0.262991124366608</v>
       </c>
       <c r="H218" t="n">
         <v>1.29</v>
@@ -18029,7 +18029,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.00507</v>
+        <v>0.00544</v>
       </c>
       <c r="M218" t="n">
         <v>0.533</v>
@@ -18092,10 +18092,10 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0.148</v>
+        <v>0.1477</v>
       </c>
       <c r="G219" t="n">
-        <v>0.274443996799352</v>
+        <v>0.274455579921435</v>
       </c>
       <c r="H219" t="n">
         <v>1.295</v>
@@ -18106,7 +18106,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.01541</v>
+        <v>0.01565</v>
       </c>
       <c r="M219" t="n">
         <v>0.5651</v>
@@ -18169,10 +18169,10 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0.148</v>
+        <v>0.1477</v>
       </c>
       <c r="G220" t="n">
-        <v>0.274443996799352</v>
+        <v>0.274455579921435</v>
       </c>
       <c r="H220" t="n">
         <v>1.295</v>
@@ -18183,7 +18183,7 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>0.01541</v>
+        <v>0.01565</v>
       </c>
       <c r="M220" t="n">
         <v>0.5651</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>1.62652634111779</v>
+        <v>1.63300857228335</v>
       </c>
       <c r="H225" t="n">
-        <v>7.05910998825558</v>
+        <v>7.41728931319691</v>
       </c>
       <c r="I225" t="n">
         <v>5.532</v>
@@ -18642,7 +18642,7 @@
         <v>0.011</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0121081467045262</v>
+        <v>0.0121092043333507</v>
       </c>
       <c r="H226" t="n">
         <v>0.038</v>
@@ -18723,7 +18723,7 @@
         <v>0.011</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0121081467045262</v>
+        <v>0.0121092043333507</v>
       </c>
       <c r="H227" t="n">
         <v>0.038</v>
@@ -19141,27 +19141,27 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.0023</v>
+        <v>0.00235</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0038324972919224</v>
+        <v>0.0038758746927349</v>
       </c>
       <c r="H232" t="n">
         <v>0.0246802764716001</v>
       </c>
       <c r="I232" t="n">
-        <v>0.01807</v>
+        <v>0.01834</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.00216</v>
+        <v>0.00221</v>
       </c>
       <c r="M232" t="n">
-        <v>0.00453</v>
+        <v>0.00457</v>
       </c>
       <c r="N232" t="n">
-        <v>0.00903</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="O232" t="n">
         <v>1819686</v>
@@ -19222,27 +19222,27 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.0023</v>
+        <v>0.00235</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0038324972919224</v>
+        <v>0.0038758746927349</v>
       </c>
       <c r="H233" t="n">
         <v>0.0246802764716001</v>
       </c>
       <c r="I233" t="n">
-        <v>0.01807</v>
+        <v>0.01834</v>
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.00216</v>
+        <v>0.00221</v>
       </c>
       <c r="M233" t="n">
-        <v>0.00453</v>
+        <v>0.00457</v>
       </c>
       <c r="N233" t="n">
-        <v>0.00903</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="O233" t="n">
         <v>1819686</v>
@@ -19306,7 +19306,7 @@
         <v>0.2085</v>
       </c>
       <c r="G234" t="n">
-        <v>0.289103836463138</v>
+        <v>0.289147791033274</v>
       </c>
       <c r="H234" t="n">
         <v>1.29</v>
@@ -19317,7 +19317,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.00911</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="M234" t="n">
         <v>0.58945</v>
@@ -19387,7 +19387,7 @@
         <v>0.2085</v>
       </c>
       <c r="G235" t="n">
-        <v>0.289103836463138</v>
+        <v>0.289147791033274</v>
       </c>
       <c r="H235" t="n">
         <v>1.29</v>
@@ -19398,7 +19398,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>0.00911</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="M235" t="n">
         <v>0.58945</v>
@@ -19464,7 +19464,7 @@
         <v>0.225</v>
       </c>
       <c r="G236" t="n">
-        <v>0.300677330132686</v>
+        <v>0.300697246588102</v>
       </c>
       <c r="H236" t="n">
         <v>1.295</v>
@@ -19475,10 +19475,10 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>0.02336</v>
+        <v>0.02356</v>
       </c>
       <c r="M236" t="n">
-        <v>0.6037</v>
+        <v>0.60367</v>
       </c>
       <c r="N236" t="n">
         <v>0.819</v>
@@ -19541,7 +19541,7 @@
         <v>0.225</v>
       </c>
       <c r="G237" t="n">
-        <v>0.300677330132686</v>
+        <v>0.300697246588102</v>
       </c>
       <c r="H237" t="n">
         <v>1.295</v>
@@ -19552,10 +19552,10 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.02336</v>
+        <v>0.02356</v>
       </c>
       <c r="M237" t="n">
-        <v>0.6037</v>
+        <v>0.60367</v>
       </c>
       <c r="N237" t="n">
         <v>0.819</v>
@@ -19930,7 +19930,7 @@
         <v>0.75</v>
       </c>
       <c r="G242" t="n">
-        <v>1.4445434042453</v>
+        <v>1.44423597959217</v>
       </c>
       <c r="H242" t="n">
         <v>5.8</v>
@@ -20011,7 +20011,7 @@
         <v>0.011</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0119914800378596</v>
+        <v>0.011992537666684</v>
       </c>
       <c r="H243" t="n">
         <v>0.038</v>
@@ -20092,7 +20092,7 @@
         <v>0.011</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0119914800378596</v>
+        <v>0.011992537666684</v>
       </c>
       <c r="H244" t="n">
         <v>0.038</v>
@@ -20510,27 +20510,27 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.00257</v>
+        <v>0.00262</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0038235111097148</v>
+        <v>0.0038810076739082</v>
       </c>
       <c r="H249" t="n">
         <v>0.0238901725376698</v>
       </c>
       <c r="I249" t="n">
-        <v>0.01309</v>
+        <v>0.01314</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>0.00291</v>
+        <v>0.00297</v>
       </c>
       <c r="M249" t="n">
-        <v>0.00469</v>
+        <v>0.00476</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0065</v>
+        <v>0.00661</v>
       </c>
       <c r="O249" t="n">
         <v>1819686</v>
@@ -20591,27 +20591,27 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0.00257</v>
+        <v>0.00262</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0038235111097148</v>
+        <v>0.0038810076739082</v>
       </c>
       <c r="H250" t="n">
         <v>0.0238901725376698</v>
       </c>
       <c r="I250" t="n">
-        <v>0.01309</v>
+        <v>0.01314</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>0.00291</v>
+        <v>0.00297</v>
       </c>
       <c r="M250" t="n">
-        <v>0.00469</v>
+        <v>0.00476</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0065</v>
+        <v>0.00661</v>
       </c>
       <c r="O250" t="n">
         <v>1819686</v>
@@ -20675,7 +20675,7 @@
         <v>0.2085</v>
       </c>
       <c r="G251" t="n">
-        <v>0.292380074378476</v>
+        <v>0.292432585642497</v>
       </c>
       <c r="H251" t="n">
         <v>1.29</v>
@@ -20756,7 +20756,7 @@
         <v>0.2085</v>
       </c>
       <c r="G252" t="n">
-        <v>0.292380074378476</v>
+        <v>0.292432585642497</v>
       </c>
       <c r="H252" t="n">
         <v>1.29</v>
@@ -20833,7 +20833,7 @@
         <v>0.225</v>
       </c>
       <c r="G253" t="n">
-        <v>0.302952414925246</v>
+        <v>0.302990804533543</v>
       </c>
       <c r="H253" t="n">
         <v>1.295</v>
@@ -20844,10 +20844,10 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>0.03475</v>
+        <v>0.03501</v>
       </c>
       <c r="M253" t="n">
-        <v>0.6453</v>
+        <v>0.64523</v>
       </c>
       <c r="N253" t="n">
         <v>0.852</v>
@@ -20910,7 +20910,7 @@
         <v>0.225</v>
       </c>
       <c r="G254" t="n">
-        <v>0.302952414925246</v>
+        <v>0.302990804533543</v>
       </c>
       <c r="H254" t="n">
         <v>1.295</v>
@@ -20921,10 +20921,10 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
-        <v>0.03475</v>
+        <v>0.03501</v>
       </c>
       <c r="M254" t="n">
-        <v>0.6453</v>
+        <v>0.64523</v>
       </c>
       <c r="N254" t="n">
         <v>0.852</v>
@@ -21299,7 +21299,7 @@
         <v>0.625</v>
       </c>
       <c r="G259" t="n">
-        <v>1.22738659269633</v>
+        <v>1.22715174233238</v>
       </c>
       <c r="H259" t="n">
         <v>5.54</v>
@@ -21380,7 +21380,7 @@
         <v>0.01</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0112455729198572</v>
+        <v>0.0112466484745939</v>
       </c>
       <c r="H260" t="n">
         <v>0.038</v>
@@ -21461,7 +21461,7 @@
         <v>0.01</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0112455729198572</v>
+        <v>0.0112466484745939</v>
       </c>
       <c r="H261" t="n">
         <v>0.038</v>
@@ -21879,27 +21879,27 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0.00282</v>
+        <v>0.00287</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0041075422590983</v>
+        <v>0.004165597429749</v>
       </c>
       <c r="H266" t="n">
         <v>0.0238901725376698</v>
       </c>
       <c r="I266" t="n">
-        <v>0.01448</v>
+        <v>0.0145</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
-        <v>0.00303</v>
+        <v>0.00306</v>
       </c>
       <c r="M266" t="n">
-        <v>0.00485</v>
+        <v>0.00488</v>
       </c>
       <c r="N266" t="n">
-        <v>0.00707</v>
+        <v>0.0072</v>
       </c>
       <c r="O266" t="n">
         <v>1819686</v>
@@ -21960,27 +21960,27 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0.00282</v>
+        <v>0.00287</v>
       </c>
       <c r="G267" t="n">
-        <v>0.0041075422590983</v>
+        <v>0.004165597429749</v>
       </c>
       <c r="H267" t="n">
         <v>0.0238901725376698</v>
       </c>
       <c r="I267" t="n">
-        <v>0.01448</v>
+        <v>0.0145</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
-        <v>0.00303</v>
+        <v>0.00306</v>
       </c>
       <c r="M267" t="n">
-        <v>0.00485</v>
+        <v>0.00488</v>
       </c>
       <c r="N267" t="n">
-        <v>0.00707</v>
+        <v>0.0072</v>
       </c>
       <c r="O267" t="n">
         <v>1819686</v>
@@ -22044,7 +22044,7 @@
         <v>0.155</v>
       </c>
       <c r="G268" t="n">
-        <v>0.287243278768946</v>
+        <v>0.287300459736784</v>
       </c>
       <c r="H268" t="n">
         <v>1.29</v>
@@ -22055,7 +22055,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
-        <v>0.0245</v>
+        <v>0.02473</v>
       </c>
       <c r="M268" t="n">
         <v>0.6278899999999999</v>
@@ -22125,7 +22125,7 @@
         <v>0.155</v>
       </c>
       <c r="G269" t="n">
-        <v>0.287243278768946</v>
+        <v>0.287300459736784</v>
       </c>
       <c r="H269" t="n">
         <v>1.29</v>
@@ -22136,7 +22136,7 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>0.0245</v>
+        <v>0.02473</v>
       </c>
       <c r="M269" t="n">
         <v>0.6278899999999999</v>
@@ -22202,7 +22202,7 @@
         <v>0.175</v>
       </c>
       <c r="G270" t="n">
-        <v>0.296763636491736</v>
+        <v>0.296789364204858</v>
       </c>
       <c r="H270" t="n">
         <v>1.295</v>
@@ -22213,7 +22213,7 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>0.03475</v>
+        <v>0.03501</v>
       </c>
       <c r="M270" t="n">
         <v>0.642</v>
@@ -22279,7 +22279,7 @@
         <v>0.175</v>
       </c>
       <c r="G271" t="n">
-        <v>0.296763636491736</v>
+        <v>0.296789364204858</v>
       </c>
       <c r="H271" t="n">
         <v>1.295</v>
@@ -22290,7 +22290,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>0.03475</v>
+        <v>0.03501</v>
       </c>
       <c r="M271" t="n">
         <v>0.642</v>
@@ -22668,7 +22668,7 @@
         <v>0.35</v>
       </c>
       <c r="G276" t="n">
-        <v>0.948684155004757</v>
+        <v>0.948406604574626</v>
       </c>
       <c r="H276" t="n">
         <v>3.88</v>
@@ -22911,7 +22911,7 @@
         <v>200</v>
       </c>
       <c r="G279" t="n">
-        <v>1984.23028647559</v>
+        <v>1879.9453835021</v>
       </c>
       <c r="H279" t="n">
         <v>61000</v>
@@ -22996,7 +22996,7 @@
         <v>200</v>
       </c>
       <c r="G280" t="n">
-        <v>1984.23028647559</v>
+        <v>1879.9453835021</v>
       </c>
       <c r="H280" t="n">
         <v>61000</v>
@@ -23081,7 +23081,7 @@
         <v>200</v>
       </c>
       <c r="G281" t="n">
-        <v>1984.23028647559</v>
+        <v>1879.9453835021</v>
       </c>
       <c r="H281" t="n">
         <v>61000</v>
@@ -23166,7 +23166,7 @@
         <v>200</v>
       </c>
       <c r="G282" t="n">
-        <v>1984.23028647559</v>
+        <v>1879.9453835021</v>
       </c>
       <c r="H282" t="n">
         <v>61000</v>
@@ -23248,10 +23248,10 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0.00337</v>
+        <v>0.0034</v>
       </c>
       <c r="G283" t="n">
-        <v>0.0045893929318437</v>
+        <v>0.0046373317691821</v>
       </c>
       <c r="H283" t="n">
         <v>0.0238901725376698</v>
@@ -23262,13 +23262,13 @@
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
-        <v>0.00375</v>
+        <v>0.00383</v>
       </c>
       <c r="M283" t="n">
-        <v>0.00619</v>
+        <v>0.00625</v>
       </c>
       <c r="N283" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O283" t="n">
         <v>1819686</v>
@@ -23329,10 +23329,10 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0.00337</v>
+        <v>0.0034</v>
       </c>
       <c r="G284" t="n">
-        <v>0.0045893929318437</v>
+        <v>0.0046373317691821</v>
       </c>
       <c r="H284" t="n">
         <v>0.0238901725376698</v>
@@ -23343,13 +23343,13 @@
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
-        <v>0.00375</v>
+        <v>0.00383</v>
       </c>
       <c r="M284" t="n">
-        <v>0.00619</v>
+        <v>0.00625</v>
       </c>
       <c r="N284" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="O284" t="n">
         <v>1819686</v>
@@ -23413,7 +23413,7 @@
         <v>0.155</v>
       </c>
       <c r="G285" t="n">
-        <v>0.247711765744339</v>
+        <v>0.247747229501438</v>
       </c>
       <c r="H285" t="n">
         <v>0.93</v>
@@ -23494,7 +23494,7 @@
         <v>0.155</v>
       </c>
       <c r="G286" t="n">
-        <v>0.247711765744339</v>
+        <v>0.247747229501438</v>
       </c>
       <c r="H286" t="n">
         <v>0.93</v>
@@ -23571,7 +23571,7 @@
         <v>0.161</v>
       </c>
       <c r="G287" t="n">
-        <v>0.25695283458895</v>
+        <v>0.256970083590749</v>
       </c>
       <c r="H287" t="n">
         <v>0.945</v>
@@ -23648,7 +23648,7 @@
         <v>0.161</v>
       </c>
       <c r="G288" t="n">
-        <v>0.25695283458895</v>
+        <v>0.256970083590749</v>
       </c>
       <c r="H288" t="n">
         <v>0.945</v>
@@ -24037,7 +24037,7 @@
         <v>0.215</v>
       </c>
       <c r="G293" t="n">
-        <v>0.866408184329981</v>
+        <v>0.866078124359015</v>
       </c>
       <c r="H293" t="n">
         <v>3.02</v>
@@ -24280,7 +24280,7 @@
         <v>200</v>
       </c>
       <c r="G296" t="n">
-        <v>1906.60316783152</v>
+        <v>1802.31826485803</v>
       </c>
       <c r="H296" t="n">
         <v>61000</v>
@@ -24365,7 +24365,7 @@
         <v>200</v>
       </c>
       <c r="G297" t="n">
-        <v>1906.60316783152</v>
+        <v>1802.31826485803</v>
       </c>
       <c r="H297" t="n">
         <v>61000</v>
@@ -24450,7 +24450,7 @@
         <v>200</v>
       </c>
       <c r="G298" t="n">
-        <v>1906.60316783152</v>
+        <v>1802.31826485803</v>
       </c>
       <c r="H298" t="n">
         <v>61000</v>
@@ -24535,7 +24535,7 @@
         <v>200</v>
       </c>
       <c r="G299" t="n">
-        <v>1906.60316783152</v>
+        <v>1802.31826485803</v>
       </c>
       <c r="H299" t="n">
         <v>61000</v>
@@ -24617,10 +24617,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0.00445</v>
+        <v>0.00451</v>
       </c>
       <c r="G300" t="n">
-        <v>0.0048579472219578</v>
+        <v>0.0048830702266606</v>
       </c>
       <c r="H300" t="n">
         <v>0.0238901725376698</v>
@@ -24631,10 +24631,10 @@
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
-        <v>0.00418</v>
+        <v>0.00422</v>
       </c>
       <c r="M300" t="n">
-        <v>0.00666</v>
+        <v>0.0067</v>
       </c>
       <c r="N300" t="n">
         <v>0.008449999999999999</v>
@@ -24698,10 +24698,10 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0.00445</v>
+        <v>0.00451</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0048579472219578</v>
+        <v>0.0048830702266606</v>
       </c>
       <c r="H301" t="n">
         <v>0.0238901725376698</v>
@@ -24712,10 +24712,10 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
-        <v>0.00418</v>
+        <v>0.00422</v>
       </c>
       <c r="M301" t="n">
-        <v>0.00666</v>
+        <v>0.0067</v>
       </c>
       <c r="N301" t="n">
         <v>0.008449999999999999</v>
@@ -24782,7 +24782,7 @@
         <v>0.179</v>
       </c>
       <c r="G302" t="n">
-        <v>0.280572518097391</v>
+        <v>0.280599700391056</v>
       </c>
       <c r="H302" t="n">
         <v>0.975</v>
@@ -24863,7 +24863,7 @@
         <v>0.179</v>
       </c>
       <c r="G303" t="n">
-        <v>0.280572518097391</v>
+        <v>0.280599700391056</v>
       </c>
       <c r="H303" t="n">
         <v>0.975</v>
@@ -24940,7 +24940,7 @@
         <v>0.189</v>
       </c>
       <c r="G304" t="n">
-        <v>0.290279747246671</v>
+        <v>0.290288364012314</v>
       </c>
       <c r="H304" t="n">
         <v>0.988</v>
@@ -24954,7 +24954,7 @@
         <v>0.063</v>
       </c>
       <c r="M304" t="n">
-        <v>0.59846</v>
+        <v>0.59872</v>
       </c>
       <c r="N304" t="n">
         <v>0.8208</v>
@@ -25017,7 +25017,7 @@
         <v>0.189</v>
       </c>
       <c r="G305" t="n">
-        <v>0.290279747246671</v>
+        <v>0.290288364012314</v>
       </c>
       <c r="H305" t="n">
         <v>0.988</v>
@@ -25031,7 +25031,7 @@
         <v>0.063</v>
       </c>
       <c r="M305" t="n">
-        <v>0.59846</v>
+        <v>0.59872</v>
       </c>
       <c r="N305" t="n">
         <v>0.8208</v>
@@ -25376,6 +25376,1375 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.68239062428132</v>
+      </c>
+      <c r="H310" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1.78152</v>
+      </c>
+      <c r="N310" t="n">
+        <v>2.37832</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0119322033898305</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0119322033898305</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>160</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1665.36911231566</v>
+      </c>
+      <c r="H313" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3090</v>
+      </c>
+      <c r="J313" t="n">
+        <v>23.728813559322</v>
+      </c>
+      <c r="K313" t="n">
+        <v>38.9830508474576</v>
+      </c>
+      <c r="L313" t="n">
+        <v>360</v>
+      </c>
+      <c r="M313" t="n">
+        <v>852.9</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1854.12</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P313" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>160</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1665.36911231566</v>
+      </c>
+      <c r="H314" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3090</v>
+      </c>
+      <c r="J314" t="n">
+        <v>23.728813559322</v>
+      </c>
+      <c r="K314" t="n">
+        <v>38.9830508474576</v>
+      </c>
+      <c r="L314" t="n">
+        <v>360</v>
+      </c>
+      <c r="M314" t="n">
+        <v>852.9</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1854.12</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>160</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1665.36911231566</v>
+      </c>
+      <c r="H315" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3090</v>
+      </c>
+      <c r="J315" t="n">
+        <v>23.728813559322</v>
+      </c>
+      <c r="K315" t="n">
+        <v>38.9830508474576</v>
+      </c>
+      <c r="L315" t="n">
+        <v>360</v>
+      </c>
+      <c r="M315" t="n">
+        <v>852.9</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1854.12</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P315" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>160</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1665.36911231566</v>
+      </c>
+      <c r="H316" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3090</v>
+      </c>
+      <c r="J316" t="n">
+        <v>23.728813559322</v>
+      </c>
+      <c r="K316" t="n">
+        <v>38.9830508474576</v>
+      </c>
+      <c r="L316" t="n">
+        <v>360</v>
+      </c>
+      <c r="M316" t="n">
+        <v>852.9</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1854.12</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P316" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0046603966667549</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.0151726610434492</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.008630000000000001</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.008449999999999999</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P317" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0046603966667549</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.0151726610434492</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.008630000000000001</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.008449999999999999</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P318" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.298870886831734</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.8948</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>0.0835</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.59405</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="O319" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P319" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.298870886831734</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.8948</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>0.0835</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.59405</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="O320" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P320" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.309152770791975</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.59872</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.8668400000000001</v>
+      </c>
+      <c r="O321" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P321" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.309152770791975</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0.59872</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0.8668400000000001</v>
+      </c>
+      <c r="O322" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P322" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.481864406779661</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0.7935</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1.0856</v>
+      </c>
+      <c r="O323" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P323" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.481864406779661</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.7935</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1.0856</v>
+      </c>
+      <c r="O324" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P324" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07042372881355929</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.2398</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.11576</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.19956</v>
+      </c>
+      <c r="O325" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P325" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07042372881355929</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.2398</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.11576</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.19956</v>
+      </c>
+      <c r="O326" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="P326" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
+++ b/state_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
@@ -9294,13 +9294,13 @@
         <v>1.4</v>
       </c>
       <c r="G110" t="n">
-        <v>1.68751085015792</v>
+        <v>1.70952091865193</v>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>5.3651923749008</v>
       </c>
       <c r="I110" t="n">
-        <v>4.41374</v>
+        <v>4.685</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -10347,13 +10347,13 @@
         <v>1.5</v>
       </c>
       <c r="G123" t="n">
-        <v>1.67985557461549</v>
+        <v>1.69737379239644</v>
       </c>
       <c r="H123" t="n">
-        <v>5</v>
+        <v>5.3651923749008</v>
       </c>
       <c r="I123" t="n">
-        <v>4.31034</v>
+        <v>4.335</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -11716,10 +11716,10 @@
         <v>1.5</v>
       </c>
       <c r="G140" t="n">
-        <v>1.72072156281636</v>
+        <v>1.73755279166472</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>5.3651923749008</v>
       </c>
       <c r="I140" t="n">
         <v>4.285</v>
@@ -13085,13 +13085,13 @@
         <v>1.6</v>
       </c>
       <c r="G157" t="n">
-        <v>1.7967994761357</v>
+        <v>1.87474975591535</v>
       </c>
       <c r="H157" t="n">
-        <v>7.41728931319691</v>
+        <v>10.3784603511332</v>
       </c>
       <c r="I157" t="n">
-        <v>4.53146</v>
+        <v>5.01826</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -14454,10 +14454,10 @@
         <v>1.6</v>
       </c>
       <c r="G174" t="n">
-        <v>1.88218903279459</v>
+        <v>1.96013931257424</v>
       </c>
       <c r="H174" t="n">
-        <v>7.41728931319691</v>
+        <v>10.3784603511332</v>
       </c>
       <c r="I174" t="n">
         <v>5.515</v>
@@ -14471,7 +14471,7 @@
         <v>2.9585</v>
       </c>
       <c r="N174" t="n">
-        <v>4.49554</v>
+        <v>4.99341</v>
       </c>
       <c r="O174" t="n">
         <v>1819686</v>
@@ -15823,10 +15823,10 @@
         <v>1.75</v>
       </c>
       <c r="G191" t="n">
-        <v>1.93943197890963</v>
+        <v>1.99637757579302</v>
       </c>
       <c r="H191" t="n">
-        <v>7.41728931319691</v>
+        <v>10.3784603511332</v>
       </c>
       <c r="I191" t="n">
         <v>5.536</v>
@@ -17192,10 +17192,10 @@
         <v>1.25</v>
       </c>
       <c r="G208" t="n">
-        <v>1.80426783154261</v>
+        <v>1.85910433224513</v>
       </c>
       <c r="H208" t="n">
-        <v>7.41728931319691</v>
+        <v>10.3784603511332</v>
       </c>
       <c r="I208" t="n">
         <v>5.532</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>1.63300857228335</v>
+        <v>1.68784507298587</v>
       </c>
       <c r="H225" t="n">
-        <v>7.41728931319691</v>
+        <v>10.3784603511332</v>
       </c>
       <c r="I225" t="n">
         <v>5.532</v>
@@ -22911,7 +22911,7 @@
         <v>200</v>
       </c>
       <c r="G279" t="n">
-        <v>1879.9453835021</v>
+        <v>1838.62797023678</v>
       </c>
       <c r="H279" t="n">
         <v>61000</v>
@@ -22996,7 +22996,7 @@
         <v>200</v>
       </c>
       <c r="G280" t="n">
-        <v>1879.9453835021</v>
+        <v>1838.62797023678</v>
       </c>
       <c r="H280" t="n">
         <v>61000</v>
@@ -23081,7 +23081,7 @@
         <v>200</v>
       </c>
       <c r="G281" t="n">
-        <v>1879.9453835021</v>
+        <v>1838.62797023678</v>
       </c>
       <c r="H281" t="n">
         <v>61000</v>
@@ -23166,7 +23166,7 @@
         <v>200</v>
       </c>
       <c r="G282" t="n">
-        <v>1879.9453835021</v>
+        <v>1838.62797023678</v>
       </c>
       <c r="H282" t="n">
         <v>61000</v>
@@ -24280,7 +24280,7 @@
         <v>200</v>
       </c>
       <c r="G296" t="n">
-        <v>1802.31826485803</v>
+        <v>1761.00085159272</v>
       </c>
       <c r="H296" t="n">
         <v>61000</v>
@@ -24365,7 +24365,7 @@
         <v>200</v>
       </c>
       <c r="G297" t="n">
-        <v>1802.31826485803</v>
+        <v>1761.00085159272</v>
       </c>
       <c r="H297" t="n">
         <v>61000</v>
@@ -24450,7 +24450,7 @@
         <v>200</v>
       </c>
       <c r="G298" t="n">
-        <v>1802.31826485803</v>
+        <v>1761.00085159272</v>
       </c>
       <c r="H298" t="n">
         <v>61000</v>
@@ -24535,7 +24535,7 @@
         <v>200</v>
       </c>
       <c r="G299" t="n">
-        <v>1802.31826485803</v>
+        <v>1761.00085159272</v>
       </c>
       <c r="H299" t="n">
         <v>61000</v>
@@ -25649,7 +25649,7 @@
         <v>160</v>
       </c>
       <c r="G313" t="n">
-        <v>1665.36911231566</v>
+        <v>1624.05169905034</v>
       </c>
       <c r="H313" t="n">
         <v>61000</v>
@@ -25734,7 +25734,7 @@
         <v>160</v>
       </c>
       <c r="G314" t="n">
-        <v>1665.36911231566</v>
+        <v>1624.05169905034</v>
       </c>
       <c r="H314" t="n">
         <v>61000</v>
@@ -25819,7 +25819,7 @@
         <v>160</v>
       </c>
       <c r="G315" t="n">
-        <v>1665.36911231566</v>
+        <v>1624.05169905034</v>
       </c>
       <c r="H315" t="n">
         <v>61000</v>
@@ -25904,7 +25904,7 @@
         <v>160</v>
       </c>
       <c r="G316" t="n">
-        <v>1665.36911231566</v>
+        <v>1624.05169905034</v>
       </c>
       <c r="H316" t="n">
         <v>61000</v>
